--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RPAMaterial\reframworkexamples\udemyRE\UdemyPerformer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE487E48-8551-4CD8-873F-6272688B9A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DA8BC6-DB64-4F01-984A-6BEB8075654D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
   <si>
     <t>Name</t>
   </si>
@@ -211,13 +211,25 @@
   </si>
   <si>
     <t>MaxReturnResults</t>
+  </si>
+  <si>
+    <t>Currency_API</t>
+  </si>
+  <si>
+    <t>My_Currency_API_Key</t>
+  </si>
+  <si>
+    <t>3b586dd3adb41d5d2c549f17</t>
+  </si>
+  <si>
+    <t>https://v6.exchangerate-api.com/v6/yourKey/latest/reqcurrency</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -254,6 +266,12 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -272,10 +290,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -296,8 +315,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1703,8 +1724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1754,7 +1775,7 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>24</v>
@@ -1765,7 +1786,7 @@
         <v>32</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>40</v>
@@ -1892,11 +1913,25 @@
         <v>61</v>
       </c>
       <c r="B20">
-        <v>500</v>
+        <v>700</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+    </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2865,6 +2900,9 @@
     <row r="988" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B21" r:id="rId1" xr:uid="{074B357D-2664-4F4D-9216-309F393A905F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RPAMaterial\reframworkexamples\udemyRE\UdemyPerformer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DA8BC6-DB64-4F01-984A-6BEB8075654D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9B5564-9795-49F4-A263-154A07D28723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20415" windowHeight="10920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -1724,8 +1724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1775,7 +1775,7 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>24</v>
@@ -1913,7 +1913,7 @@
         <v>61</v>
       </c>
       <c r="B20">
-        <v>700</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RPAMaterial\reframworkexamples\udemyRE\UdemyPerformer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9B5564-9795-49F4-A263-154A07D28723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27EF6B8-487C-4778-8836-3FB873CC3408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20415" windowHeight="10920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1775,7 +1775,7 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>24</v>
